--- a/resource/list_normalisasi.xlsx
+++ b/resource/list_normalisasi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>Kata</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>pasopati</t>
+  </si>
+  <si>
+    <t>gerlong</t>
+  </si>
+  <si>
+    <t>gegerkalong</t>
+  </si>
+  <si>
+    <t>setibudi</t>
   </si>
 </sst>
 </file>
@@ -201,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -236,32 +245,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,15 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,73 +307,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +319,82 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -402,13 +411,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,49 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,115 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,20 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,21 +660,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -679,17 +670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,155 +688,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -864,6 +873,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1533,6 +1543,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/resource/list_normalisasi.xlsx
+++ b/resource/list_normalisasi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>Kata</t>
   </si>
@@ -203,6 +203,279 @@
   </si>
   <si>
     <t>setibudi</t>
+  </si>
+  <si>
+    <t>Putaran</t>
+  </si>
+  <si>
+    <t>plang balik arah</t>
+  </si>
+  <si>
+    <t>polsek</t>
+  </si>
+  <si>
+    <t>kepolisian sektor</t>
+  </si>
+  <si>
+    <t>arh</t>
+  </si>
+  <si>
+    <t>arah</t>
+  </si>
+  <si>
+    <t>Wib</t>
+  </si>
+  <si>
+    <t>waktu indonesia barat</t>
+  </si>
+  <si>
+    <t>wib</t>
+  </si>
+  <si>
+    <t>by pass</t>
+  </si>
+  <si>
+    <t>msh</t>
+  </si>
+  <si>
+    <t>masih</t>
+  </si>
+  <si>
+    <t>lalihn</t>
+  </si>
+  <si>
+    <t>lalulintas</t>
+  </si>
+  <si>
+    <t>dpn</t>
+  </si>
+  <si>
+    <t>depan</t>
+  </si>
+  <si>
+    <t>mapolsek</t>
+  </si>
+  <si>
+    <t>markas kepolisian sektor</t>
+  </si>
+  <si>
+    <t>mapolrestabes</t>
+  </si>
+  <si>
+    <t>markas kepolisian resor kota besar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdg </t>
+  </si>
+  <si>
+    <t>bandung</t>
+  </si>
+  <si>
+    <t>nsh</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>ujicoba</t>
+  </si>
+  <si>
+    <t>uji coba</t>
+  </si>
+  <si>
+    <t>yg</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>dpt</t>
+  </si>
+  <si>
+    <t>dapat</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>LSM</t>
+  </si>
+  <si>
+    <t>lembaga swadaya masyarakat</t>
+  </si>
+  <si>
+    <t>unras</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>waka</t>
+  </si>
+  <si>
+    <t>wakil ketua</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>dari</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>gedung</t>
+  </si>
+  <si>
+    <t>kndaraan</t>
+  </si>
+  <si>
+    <t>kendaraan</t>
+  </si>
+  <si>
+    <t>cukupa</t>
+  </si>
+  <si>
+    <t>simpan</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>terdapat</t>
+  </si>
+  <si>
+    <t>Bbq</t>
+  </si>
+  <si>
+    <t>barbeque</t>
+  </si>
+  <si>
+    <t>psr</t>
+  </si>
+  <si>
+    <t>pasar</t>
+  </si>
+  <si>
+    <t>ppi</t>
+  </si>
+  <si>
+    <t>lapangan pussenif</t>
+  </si>
+  <si>
+    <t>dgn</t>
+  </si>
+  <si>
+    <t>dengan</t>
+  </si>
+  <si>
+    <t>btc</t>
+  </si>
+  <si>
+    <t>bandung trade center</t>
+  </si>
+  <si>
+    <t>landai</t>
+  </si>
+  <si>
+    <t>rshs</t>
+  </si>
+  <si>
+    <t>rumah sakit hasan sadikin</t>
+  </si>
+  <si>
+    <t>ramai</t>
+  </si>
+  <si>
+    <t>lancar</t>
+  </si>
+  <si>
+    <t>ramai lancar</t>
+  </si>
+  <si>
+    <t>antrian</t>
+  </si>
+  <si>
+    <t>bts</t>
+  </si>
+  <si>
+    <t>batas</t>
+  </si>
+  <si>
+    <t>pngkatan</t>
+  </si>
+  <si>
+    <t>cukup lancar</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>pningkatan vol</t>
+  </si>
+  <si>
+    <t>peningkatan volume</t>
+  </si>
+  <si>
+    <t>cukup landai</t>
+  </si>
+  <si>
+    <t>penuh</t>
+  </si>
+  <si>
+    <t>kepadatan</t>
+  </si>
+  <si>
+    <t>peningkatan arus</t>
+  </si>
+  <si>
+    <t>masih lancar</t>
+  </si>
+  <si>
+    <t>peningktan vol</t>
+  </si>
+  <si>
+    <t>peningkatan vol</t>
+  </si>
+  <si>
+    <t>cukup meriah lancar</t>
+  </si>
+  <si>
+    <t>ckp lancar</t>
+  </si>
+  <si>
+    <t>meriah lancar</t>
+  </si>
+  <si>
+    <t>meriah</t>
+  </si>
+  <si>
+    <t>tidak macet</t>
+  </si>
+  <si>
+    <t>penyempitan</t>
+  </si>
+  <si>
+    <t>volume mengkat</t>
+  </si>
+  <si>
+    <t>volume meningkat</t>
+  </si>
+  <si>
+    <t>sepi</t>
   </si>
 </sst>
 </file>
@@ -210,9 +483,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -252,8 +525,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,23 +608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,9 +624,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,88 +662,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -411,187 +684,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +893,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -631,15 +933,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,174 +984,154 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,7 +1146,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,10 +1462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1544,7 +1817,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
@@ -1555,14 +1828,631 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/resource/list_normalisasi.xlsx
+++ b/resource/list_normalisasi.xlsx
@@ -483,12 +483,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,23 +518,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,30 +556,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -594,25 +578,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,7 +595,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +616,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -647,7 +632,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,11 +646,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -684,31 +677,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +797,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,139 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,31 +886,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,17 +916,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,153 +958,173 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,7 +1139,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:C96"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1810,7 +1803,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
